--- a/Postgre_understand/Muestreo_Bases.xlsx
+++ b/Postgre_understand/Muestreo_Bases.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesiedu-my.sharepoint.com/personal/1061776954_u_icesi_edu_co/Documents/01_Maestria_Ciencia_Datos/01_Semestre/04_Infraestructura_Arquitectura_TI/Proyecto_Final_GitHub/etlproject-infratech_24/Postgre_understand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BED68EF-6A04-4260-8E89-7CF73750F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{1BED68EF-6A04-4260-8E89-7CF73750F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FA14A5-A777-4DF0-8087-50E9BDDA772B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADF78DA4-54F8-40E0-9AAF-008B0C251448}"/>
-    <workbookView minimized="1" xWindow="29745" yWindow="6585" windowWidth="15300" windowHeight="7965" xr2:uid="{D7064AA4-E215-4B6C-8B1C-81F3AC7F3E36}"/>
+    <workbookView xWindow="28680" yWindow="3450" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{ADF78DA4-54F8-40E0-9AAF-008B0C251448}"/>
   </bookViews>
   <sheets>
     <sheet name="amesdbtemp" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="226">
   <si>
     <t>Exter Cond</t>
   </si>
@@ -716,6 +715,12 @@
   <si>
     <t>Gar2</t>
   </si>
+  <si>
+    <t>Year Remod/Add Updated</t>
+  </si>
+  <si>
+    <t>CamposCSV</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,10 +775,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,10 +1116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD58898-B11C-436F-B68D-2585CE134405}">
   <dimension ref="A1:AF372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37577,7 +37588,6 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37652,7 +37662,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37770,7 +37779,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37852,7 +37860,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38145,7 +38152,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:E14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -38955,13 +38961,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F00B5A-16AB-413E-8E20-96178E690FF4}">
-  <dimension ref="A1:CC7"/>
+  <dimension ref="A1:CC18"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
-    <sheetView topLeftCell="AN1" workbookViewId="1">
-      <selection activeCell="BA7" sqref="BA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:CC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38979,58 +38982,58 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>167</v>
       </c>
       <c r="V1" t="s">
@@ -40275,6 +40278,636 @@
         <v>no encontrado</v>
       </c>
     </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>163</v>
+      </c>
+      <c r="R16" t="s">
+        <v>164</v>
+      </c>
+      <c r="S16" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" t="s">
+        <v>166</v>
+      </c>
+      <c r="U16" t="s">
+        <v>167</v>
+      </c>
+      <c r="V16" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>191</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>195</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>196</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>198</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF(A16=A1,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:BM18" si="0">IF(B16=B1,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AN18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AO18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AP18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AR18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AS18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AT18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AU18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AV18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AW18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AX18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AY18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="AZ18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BA18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BB18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BC18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BD18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BE18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BF18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BG18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BH18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BI18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BJ18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BK18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BL18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BM18" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="BN18" t="str">
+        <f t="shared" ref="BN18:CC18" si="1">IF(BN16=BN1,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="BO18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BP18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BQ18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BR18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BS18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BT18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BU18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BV18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BW18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BX18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BY18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="BZ18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="CA18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="CB18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="CC18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postgre_understand/Muestreo_Bases.xlsx
+++ b/Postgre_understand/Muestreo_Bases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesiedu-my.sharepoint.com/personal/1061776954_u_icesi_edu_co/Documents/01_Maestria_Ciencia_Datos/01_Semestre/04_Infraestructura_Arquitectura_TI/Proyecto_Final_GitHub/etlproject-infratech_24/Postgre_understand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{1BED68EF-6A04-4260-8E89-7CF73750F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FA14A5-A777-4DF0-8087-50E9BDDA772B}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{1BED68EF-6A04-4260-8E89-7CF73750F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EFA12F-942D-4365-852B-F3878758A233}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3450" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{ADF78DA4-54F8-40E0-9AAF-008B0C251448}"/>
+    <workbookView xWindow="28680" yWindow="3450" windowWidth="20640" windowHeight="11160" tabRatio="651" activeTab="6" xr2:uid="{ADF78DA4-54F8-40E0-9AAF-008B0C251448}"/>
   </bookViews>
   <sheets>
     <sheet name="amesdbtemp" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="saleproperty" sheetId="5" r:id="rId5"/>
     <sheet name="floordetail" sheetId="6" r:id="rId6"/>
     <sheet name="MUESTRA" sheetId="7" r:id="rId7"/>
+    <sheet name="Inventario" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5672" uniqueCount="233">
   <si>
     <t>Exter Cond</t>
   </si>
@@ -719,7 +720,28 @@
     <t>Year Remod/Add Updated</t>
   </si>
   <si>
-    <t>CamposCSV</t>
+    <t>Campos Postgre</t>
+  </si>
+  <si>
+    <t>Muestra</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Mongo</t>
+  </si>
+  <si>
+    <t>Aplica</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Mongo DB</t>
   </si>
 </sst>
 </file>
@@ -763,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -771,20 +793,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -795,6 +903,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38961,470 +39073,471 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F00B5A-16AB-413E-8E20-96178E690FF4}">
-  <dimension ref="A1:CC18"/>
+  <dimension ref="A1:CD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:CC18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" t="s">
-        <v>1</v>
-      </c>
       <c r="AC1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
         <v>168</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>169</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>170</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>171</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>172</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>173</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>174</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>175</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>176</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>177</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>178</v>
       </c>
-      <c r="AO1" t="s">
-        <v>2</v>
-      </c>
       <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>14</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>179</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>16</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>17</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>18</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>180</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>181</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>182</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>19</v>
       </c>
-      <c r="BB1" t="s">
-        <v>3</v>
-      </c>
       <c r="BC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" t="s">
         <v>20</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>184</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>185</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>23</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>186</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>187</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>188</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>189</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>190</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>191</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>192</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>24</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>25</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>26</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>27</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>28</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>29</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>193</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>194</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>195</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>196</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>197</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>526301100</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>141</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>31770</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>201</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>203</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>204</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>205</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>206</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>207</v>
-      </c>
-      <c r="N2" t="s">
-        <v>208</v>
       </c>
       <c r="O2" t="s">
         <v>208</v>
       </c>
       <c r="P2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q2" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>210</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5</v>
-      </c>
-      <c r="T2">
-        <v>1960</v>
       </c>
       <c r="U2">
         <v>1960</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
+        <v>1960</v>
+      </c>
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>76</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>112</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
       </c>
       <c r="AC2" t="s">
         <v>51</v>
       </c>
       <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>51</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>41</v>
       </c>
       <c r="AG2" t="s">
         <v>41</v>
       </c>
       <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="s">
         <v>211</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>639</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>212</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
       <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>441</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1080</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>39</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>1656</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>1656</v>
       </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
       <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA2">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
         <v>51</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>7</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>40</v>
       </c>
-      <c r="BE2">
-        <v>2</v>
-      </c>
-      <c r="BF2" t="s">
+      <c r="BF2">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="s">
         <v>41</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>213</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>1960</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>214</v>
       </c>
-      <c r="BJ2">
-        <v>2</v>
-      </c>
       <c r="BK2">
+        <v>2</v>
+      </c>
+      <c r="BL2">
         <v>528</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>51</v>
       </c>
       <c r="BM2" t="s">
         <v>51</v>
       </c>
       <c r="BN2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO2" t="s">
         <v>69</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>210</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>62</v>
       </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
       <c r="BR2">
         <v>0</v>
       </c>
@@ -39434,8 +39547,8 @@
       <c r="BT2">
         <v>0</v>
       </c>
-      <c r="BU2" t="s">
-        <v>43</v>
+      <c r="BU2">
+        <v>0</v>
       </c>
       <c r="BV2" t="s">
         <v>43</v>
@@ -39443,230 +39556,230 @@
       <c r="BW2" t="s">
         <v>43</v>
       </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2">
+      <c r="BX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2">
         <v>5</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="CA2" s="2">
         <v>2010</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CD2" s="2">
         <v>215000</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>526350040</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>113</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11622</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>201</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
         <v>216</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>203</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>204</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>217</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>206</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>207</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>218</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>208</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>209</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>210</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6</v>
-      </c>
-      <c r="T3">
-        <v>1961</v>
       </c>
       <c r="U3">
         <v>1961</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3">
+        <v>1961</v>
+      </c>
+      <c r="W3" t="s">
         <v>32</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>44</v>
       </c>
       <c r="Y3" t="s">
         <v>44</v>
       </c>
       <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
         <v>45</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>51</v>
+      <c r="AB3">
+        <v>0</v>
       </c>
       <c r="AC3" t="s">
         <v>51</v>
       </c>
       <c r="AD3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="s">
         <v>36</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>51</v>
       </c>
       <c r="AF3" t="s">
         <v>51</v>
       </c>
       <c r="AG3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" t="s">
         <v>219</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>220</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>468</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>221</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>144</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>270</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>882</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>51</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>42</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>39</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>896</v>
       </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>896</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
       <c r="AW3">
         <v>0</v>
       </c>
-      <c r="AX3" s="2">
-        <v>1</v>
+      <c r="AX3">
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
-      <c r="BB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
         <v>51</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>5</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>40</v>
       </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>43</v>
+      <c r="BF3">
+        <v>0</v>
       </c>
       <c r="BG3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH3" t="s">
         <v>213</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>1961</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>212</v>
       </c>
-      <c r="BJ3">
-        <v>1</v>
-      </c>
       <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
         <v>730</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>51</v>
       </c>
       <c r="BM3" t="s">
         <v>51</v>
       </c>
       <c r="BN3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO3" t="s">
         <v>42</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>140</v>
       </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
       <c r="BQ3">
         <v>0</v>
       </c>
@@ -39674,247 +39787,247 @@
         <v>0</v>
       </c>
       <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
         <v>120</v>
       </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>43</v>
+      <c r="BU3">
+        <v>0</v>
       </c>
       <c r="BV3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW3" t="s">
         <v>52</v>
       </c>
-      <c r="BW3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="2">
+      <c r="BX3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="2">
         <v>6</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="CA3" s="2">
         <v>2010</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CC3" s="2">
+      <c r="CD3" s="2">
         <v>105000</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>526351010</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>115</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>81</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14267</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>201</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
       <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>202</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>203</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>204</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>205</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>206</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>207</v>
-      </c>
-      <c r="N4" t="s">
-        <v>208</v>
       </c>
       <c r="O4" t="s">
         <v>208</v>
       </c>
       <c r="P4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" t="s">
         <v>209</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>210</v>
-      </c>
-      <c r="R4">
-        <v>6</v>
       </c>
       <c r="S4">
         <v>6</v>
       </c>
       <c r="T4">
-        <v>1958</v>
+        <v>6</v>
       </c>
       <c r="U4">
         <v>1958</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4">
+        <v>1958</v>
+      </c>
+      <c r="W4" t="s">
         <v>49</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>33</v>
-      </c>
-      <c r="X4" t="s">
-        <v>47</v>
       </c>
       <c r="Y4" t="s">
         <v>47</v>
       </c>
       <c r="Z4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" t="s">
         <v>35</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>108</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>51</v>
       </c>
       <c r="AC4" t="s">
         <v>51</v>
       </c>
       <c r="AD4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" t="s">
         <v>36</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>51</v>
       </c>
       <c r="AF4" t="s">
         <v>51</v>
       </c>
       <c r="AG4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="s">
         <v>219</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>222</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>923</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>212</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
       <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>406</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1329</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>51</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>39</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>1329</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
         <v>1329</v>
       </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
       <c r="AW4">
         <v>0</v>
       </c>
-      <c r="AX4" s="2">
-        <v>1</v>
+      <c r="AX4">
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="s">
         <v>41</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>6</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>40</v>
       </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>43</v>
+      <c r="BF4">
+        <v>0</v>
       </c>
       <c r="BG4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH4" t="s">
         <v>213</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>1958</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>212</v>
       </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
       <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
         <v>312</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>51</v>
       </c>
       <c r="BM4" t="s">
         <v>51</v>
       </c>
       <c r="BN4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO4" t="s">
         <v>42</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>393</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>36</v>
       </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
       <c r="BR4">
         <v>0</v>
       </c>
@@ -39924,50 +40037,52 @@
       <c r="BT4">
         <v>0</v>
       </c>
-      <c r="BU4" t="s">
-        <v>43</v>
+      <c r="BU4">
+        <v>0</v>
       </c>
       <c r="BV4" t="s">
         <v>43</v>
       </c>
       <c r="BW4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX4" t="s">
         <v>223</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>12500</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="BZ4" s="2">
         <v>6</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CA4" s="2">
         <v>2010</v>
       </c>
-      <c r="CA4" s="2" t="s">
+      <c r="CB4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CB4" s="2" t="s">
+      <c r="CC4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CC4" s="2">
+      <c r="CD4" s="2">
         <v>172000</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>_xlfn.XLOOKUP(A1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>533252040</v>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B7">
         <f>_xlfn.XLOOKUP(B1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>20</v>
+        <v>533252040</v>
       </c>
       <c r="C7">
         <f>_xlfn.XLOOKUP(C1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(D1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>6</v>
-      </c>
-      <c r="D7" t="str">
-        <f>_xlfn.XLOOKUP(D1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>no encontrado</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.XLOOKUP(E1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40039,15 +40154,15 @@
       </c>
       <c r="V7" t="str">
         <f>_xlfn.XLOOKUP(V1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>Gable</v>
+        <v>no encontrado</v>
       </c>
       <c r="W7" t="str">
         <f>_xlfn.XLOOKUP(W1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>CompShg</v>
+        <v>Gable</v>
       </c>
       <c r="X7" t="str">
         <f>_xlfn.XLOOKUP(X1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>MetalSd</v>
+        <v>CompShg</v>
       </c>
       <c r="Y7" t="str">
         <f>_xlfn.XLOOKUP(Y1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40055,27 +40170,27 @@
       </c>
       <c r="Z7" t="str">
         <f>_xlfn.XLOOKUP(Z1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>MetalSd</v>
+      </c>
+      <c r="AA7" t="str">
+        <f>_xlfn.XLOOKUP(AA1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>BrkFace</v>
-      </c>
-      <c r="AA7">
-        <f>_xlfn.XLOOKUP(AA1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>450</v>
       </c>
       <c r="AB7">
         <f>_xlfn.XLOOKUP(AB1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="AC7">
         <f>_xlfn.XLOOKUP(AC1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>1</v>
       </c>
-      <c r="AD7" t="str">
+      <c r="AD7">
         <f>_xlfn.XLOOKUP(AD1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>CBlock</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="str">
         <f>_xlfn.XLOOKUP(AE1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>no encontrado</v>
+        <v>CBlock</v>
       </c>
       <c r="AF7" t="str">
         <f>_xlfn.XLOOKUP(AF1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40111,35 +40226,35 @@
       </c>
       <c r="AN7" t="str">
         <f>_xlfn.XLOOKUP(AN1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>no encontrado</v>
+      </c>
+      <c r="AO7" t="str">
+        <f>_xlfn.XLOOKUP(AO1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>GasA</v>
       </c>
-      <c r="AO7">
-        <f>_xlfn.XLOOKUP(AO1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AP7" t="str">
+      <c r="AP7">
         <f>_xlfn.XLOOKUP(AP1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>true</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="str">
         <f>_xlfn.XLOOKUP(AQ1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>true</v>
+      </c>
+      <c r="AR7" t="str">
+        <f>_xlfn.XLOOKUP(AR1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>SBrkr</v>
-      </c>
-      <c r="AR7">
-        <f>_xlfn.XLOOKUP(AR1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>1694</v>
       </c>
       <c r="AS7">
         <f>_xlfn.XLOOKUP(AS1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>0</v>
+        <v>1694</v>
       </c>
       <c r="AT7">
         <f>_xlfn.XLOOKUP(AT1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>0</v>
       </c>
-      <c r="AU7" t="str">
+      <c r="AU7">
         <f>_xlfn.XLOOKUP(AU1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>no encontrado</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="str">
         <f>_xlfn.XLOOKUP(AV1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40161,9 +40276,9 @@
         <f>_xlfn.XLOOKUP(AZ1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>no encontrado</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="str">
         <f>_xlfn.XLOOKUP(BA1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>1</v>
+        <v>no encontrado</v>
       </c>
       <c r="BB7">
         <f>_xlfn.XLOOKUP(BB1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40171,23 +40286,23 @@
       </c>
       <c r="BC7">
         <f>_xlfn.XLOOKUP(BC1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <f>_xlfn.XLOOKUP(BD1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>5</v>
       </c>
-      <c r="BD7" t="str">
-        <f>_xlfn.XLOOKUP(BD1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+      <c r="BE7" t="str">
+        <f>_xlfn.XLOOKUP(BE1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>Typ</v>
       </c>
-      <c r="BE7">
-        <f>_xlfn.XLOOKUP(BE1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>1</v>
-      </c>
-      <c r="BF7" t="str">
+      <c r="BF7">
         <f>_xlfn.XLOOKUP(BF1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>Gd</v>
+        <v>1</v>
       </c>
       <c r="BG7" t="str">
         <f>_xlfn.XLOOKUP(BG1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>no encontrado</v>
+        <v>Gd</v>
       </c>
       <c r="BH7" t="str">
         <f>_xlfn.XLOOKUP(BH1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40215,31 +40330,31 @@
       </c>
       <c r="BN7" t="str">
         <f>_xlfn.XLOOKUP(BN1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>no encontrado</v>
+      </c>
+      <c r="BO7" t="str">
+        <f>_xlfn.XLOOKUP(BO1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>Y</v>
-      </c>
-      <c r="BO7">
-        <f>_xlfn.XLOOKUP(BO1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>501</v>
       </c>
       <c r="BP7">
         <f>_xlfn.XLOOKUP(BP1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>120</v>
+        <v>501</v>
       </c>
       <c r="BQ7">
         <f>_xlfn.XLOOKUP(BQ1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BR7">
         <f>_xlfn.XLOOKUP(BR1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="BS7">
         <f>_xlfn.XLOOKUP(BS1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>0</v>
-      </c>
-      <c r="BT7" t="str">
+        <v>225</v>
+      </c>
+      <c r="BT7">
         <f>_xlfn.XLOOKUP(BT1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>no encontrado</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="str">
         <f>_xlfn.XLOOKUP(BU1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40247,11 +40362,11 @@
       </c>
       <c r="BV7" t="str">
         <f>_xlfn.XLOOKUP(BV1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>NA</v>
+        <v>no encontrado</v>
       </c>
       <c r="BW7" t="str">
         <f>_xlfn.XLOOKUP(BW1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
-        <v>no encontrado</v>
+        <v>NA</v>
       </c>
       <c r="BX7" t="str">
         <f>_xlfn.XLOOKUP(BX1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
@@ -40277,322 +40392,571 @@
         <f>_xlfn.XLOOKUP(CC1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
         <v>no encontrado</v>
       </c>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="CD7" t="str">
+        <f>_xlfn.XLOOKUP(CD1,amesdbtemp!$A$1:$AF$1,amesdbtemp!$A$2:$AF$2,"no encontrado",0)</f>
+        <v>no encontrado</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>151</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>153</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>154</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>155</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>156</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>157</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>158</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>159</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>160</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>161</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>162</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>163</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>164</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>165</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>166</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>167</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>6</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>7</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>9</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>10</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>11</v>
       </c>
-      <c r="AB16" t="s">
-        <v>1</v>
-      </c>
       <c r="AC16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
         <v>168</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>169</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>170</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>171</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>172</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>173</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>174</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>175</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>176</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>177</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>178</v>
       </c>
-      <c r="AO16" t="s">
-        <v>2</v>
-      </c>
       <c r="AP16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>14</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>179</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>16</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>17</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>18</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>180</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>181</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>182</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>143</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>144</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>183</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>19</v>
       </c>
-      <c r="BB16" t="s">
-        <v>3</v>
-      </c>
       <c r="BC16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD16" t="s">
         <v>20</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
         <v>184</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>185</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>23</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
         <v>186</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>187</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>188</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>189</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>190</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BM16" t="s">
         <v>191</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BN16" t="s">
         <v>192</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BO16" t="s">
         <v>24</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BP16" t="s">
         <v>25</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
         <v>26</v>
       </c>
-      <c r="BQ16" t="s">
+      <c r="BR16" t="s">
         <v>27</v>
       </c>
-      <c r="BR16" t="s">
+      <c r="BS16" t="s">
         <v>28</v>
       </c>
-      <c r="BS16" t="s">
+      <c r="BT16" t="s">
         <v>29</v>
       </c>
-      <c r="BT16" t="s">
+      <c r="BU16" t="s">
         <v>193</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BV16" t="s">
         <v>194</v>
       </c>
-      <c r="BV16" t="s">
+      <c r="BW16" t="s">
         <v>195</v>
       </c>
-      <c r="BW16" t="s">
+      <c r="BX16" t="s">
         <v>196</v>
       </c>
-      <c r="BX16" t="s">
+      <c r="BY16" t="s">
         <v>197</v>
       </c>
-      <c r="BY16" t="s">
+      <c r="BZ16" t="s">
         <v>198</v>
       </c>
-      <c r="BZ16" t="s">
+      <c r="CA16" t="s">
         <v>199</v>
       </c>
-      <c r="CA16" t="s">
+      <c r="CB16" t="s">
         <v>122</v>
       </c>
-      <c r="CB16" t="s">
+      <c r="CC16" t="s">
         <v>123</v>
       </c>
-      <c r="CC16" t="s">
+      <c r="CD16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>IF(A16=A1,"Si","No")</f>
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AS17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BD17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BS17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BT17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BU17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BX17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CB17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CC17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD17" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f>IF(B16=B1,"Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" ref="B18:BM18" si="0">IF(B16=B1,"Si","No")</f>
-        <v>Si</v>
-      </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C18:BN18" si="0">IF(C16=C1,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="D18" t="str">
@@ -40844,11 +41208,11 @@
         <v>Si</v>
       </c>
       <c r="BN18" t="str">
-        <f t="shared" ref="BN18:CC18" si="1">IF(BN16=BN1,"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="BO18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BO18:CD18" si="1">IF(BO16=BO1,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="BP18" t="str">
@@ -40907,8 +41271,1209 @@
         <f t="shared" si="1"/>
         <v>Si</v>
       </c>
+      <c r="CD18" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C17:CD17">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Aplica"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Aplica"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F65DA6-E19C-4F3D-87DF-45D259878A11}">
+  <dimension ref="B2:E83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:E83">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Aplica"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Aplica"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Aplica"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Aplica"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>